--- a/public/data/events/events.xlsx
+++ b/public/data/events/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\recis-shs\public\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6414DC-13E5-4C13-B0C6-C6EB79071267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3BEF0-1D9C-425E-BF80-76D544D2944B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19710" yWindow="5415" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,19 +48,19 @@
     <t>Gallery</t>
   </si>
   <si>
-    <t>/r-shs/</t>
-  </si>
-  <si>
     <t>Events</t>
   </si>
   <si>
     <t>Recup</t>
   </si>
   <si>
-    <t>/r-shs/gallery</t>
-  </si>
-  <si>
-    <t>/r-shs/ascension-cup</t>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/gallery</t>
+  </si>
+  <si>
+    <t>/ascension-cup</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,10 +433,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>

--- a/public/data/events/events.xlsx
+++ b/public/data/events/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\recis-shs\public\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3BEF0-1D9C-425E-BF80-76D544D2944B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6204CDF2-D326-4FD2-9B67-CD854E26F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19710" yWindow="5415" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>Recup</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>/gallery</t>
   </si>
   <si>
     <t>/ascension-cup</t>
+  </si>
+  <si>
+    <t>/r-shs</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/events/events.xlsx
+++ b/public/data/events/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\recis-shs\public\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6204CDF2-D326-4FD2-9B67-CD854E26F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C439E231-4482-4EC0-AB1A-76AA23715848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19710" yWindow="5415" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4515" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="A5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/data/events/events.xlsx
+++ b/public/data/events/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\recis-shs\public\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C439E231-4482-4EC0-AB1A-76AA23715848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E8276F-0670-4C86-AE7F-3EF5CD28C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4515" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Events</t>
   </si>
   <si>
-    <t>Recup</t>
-  </si>
-  <si>
     <t>/gallery</t>
   </si>
   <si>
@@ -61,6 +58,33 @@
   </si>
   <si>
     <t>/r-shs</t>
+  </si>
+  <si>
+    <t>Ascension Cup</t>
+  </si>
+  <si>
+    <t>Jingle Joyce</t>
+  </si>
+  <si>
+    <t>/jingle-joyce</t>
+  </si>
+  <si>
+    <t>/easter-charity</t>
+  </si>
+  <si>
+    <t>/slither-sweetheart</t>
+  </si>
+  <si>
+    <t>/mpls-70</t>
+  </si>
+  <si>
+    <t>Easter Charity</t>
+  </si>
+  <si>
+    <t>Slither Sweetheart</t>
+  </si>
+  <si>
+    <t>MPLS 70</t>
   </si>
 </sst>
 </file>
@@ -384,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A5:D8"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -428,18 +452,62 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/events/events.xlsx
+++ b/public/data/events/events.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\recis-shs\public\data\events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\recis-shs\public\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E8276F-0670-4C86-AE7F-3EF5CD28C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -85,12 +84,18 @@
   </si>
   <si>
     <t>MPLS 70</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>/ascension-cup/ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,19 +412,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="28.140625" customWidth="1"/>
+    <col min="1" max="4" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -444,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -455,7 +460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -466,47 +471,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
